--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519162</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华增怡债券A</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519163</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新华增怡债券C</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20.11</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>519162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>新华增怡债券A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>519163</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>新华增怡债券C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.58</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,2188 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3082,4 +3083,2188 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6253</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8649</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2172</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6345</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011138</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6095</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5616</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3723</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012442</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>永赢稳健增长一年持有期混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>24.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2622</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2436</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2220</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1739</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1606</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0847</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010560</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013595</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢稳健增利18个月持有期混合E</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011139</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发聚鸿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008890</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>62.44</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5267,4 +5268,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5276,7 +5277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5287,17 +5288,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5307,14 +5328,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.25</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1461</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -5323,14 +5366,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.2</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0160</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5339,14 +5404,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.67</v>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5595</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5355,13 +5442,569 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4362</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519975</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信量化中小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>56</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5903,7 +5904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5914,17 +5915,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5934,14 +5955,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.85</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5950,14 +5993,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>56</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.25</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -5966,14 +6031,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.2</v>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8308</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -5982,14 +6069,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.67</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7471</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5998,13 +6107,2181 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5722</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4798</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3687</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3680</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1991</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000634</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国天盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1767</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1526</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014277</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007586</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴多策略三个月定期开放股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0727</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014212</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时研究优享混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>27.59</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510760</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰上证综合ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.21</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>69.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014278</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家北交所慧选两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.90</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>71.23</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014213</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时研究优享混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>60.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>47.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519117</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>浦银安盛基本面400指数</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8164,7 +8165,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8175,17 +8176,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8195,14 +8216,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.09</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -8211,14 +8254,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.85</v>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9099</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -8227,14 +8292,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>56</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.25</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -8243,14 +8330,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>56</v>
-      </c>
-      <c r="D5" t="n">
-        <v>26.2</v>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7311</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8259,14 +8368,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.67</v>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6322</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -8275,13 +8406,1663 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002211</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>43.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5199</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4203</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3853</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>671010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011046</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国优质企业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2567</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013678</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2084</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013679</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国信享回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>27.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0586</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>35.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004680</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011047</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国优质企业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006225</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009336</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006190</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源裕瑞混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009337</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>平安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>40.63</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006226</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>人保量化基本面混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.699999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>56</v>
+      </c>
+      <c r="D6" t="n">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D2" t="n">
-        <v>8.699999999999999</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>11.09</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>3.85</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>15.25</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>56</v>
       </c>
       <c r="D6" t="n">
-        <v>26.2</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>0.67</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -600,6 +617,2940 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2235</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1392</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8499</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7970</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7284</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7157</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6149</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3923</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银核心企业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2455</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>61.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014187</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1440</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014188</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>016347</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）E</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.59</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006857</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006858</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>蜂巢卓睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.58</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2363,7 +5314,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4623,7 +7574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5242,2190 +8193,6 @@
       </c>
       <c r="H16" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>138.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6253</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8649</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6302</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011194</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2172</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>32.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6895</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6345</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011138</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6095</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011140</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6095</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5616</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011195</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发睿铭两年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>74.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4526</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3723</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011046</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国优质企业混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2715</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2622</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012442</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合E</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2622</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2436</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2220</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2081</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1739</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1606</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>30.28</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1405</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>99.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0680</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010560</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>永赢稳健增利18个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>013595</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>永赢稳健增利18个月持有期混合E</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011139</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005910</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发龙头优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.34</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>83.22</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>30.28</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>98.55</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>010120</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>011047</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>富国优质企业混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>62.44</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005260</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>银华稳健增利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>80.68</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>80.68</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010121</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005261</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>银华稳健增利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -7490,36 +8257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>133.49</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.16</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.8213</t>
+          <t>3.6253</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -7528,36 +8295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.63</t>
+          <t>35.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.3448</t>
+          <t>1.8649</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -7566,22 +8333,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49.99</t>
+          <t>32.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -7591,11 +8358,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.5395</t>
+          <t>1.6302</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -7604,36 +8371,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>011194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.89</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1322</t>
+          <t>1.2172</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7642,36 +8409,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>502000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票A</t>
+          <t>西部利得中证500指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>32.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.0342</t>
+          <t>0.6895</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -7680,36 +8447,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011194</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.82</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3532</t>
+          <t>0.6345</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -7718,36 +8485,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>011138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>广发聚鸿六个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.70</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2901</t>
+          <t>0.6095</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -7756,36 +8523,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>011140</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>广发聚鸿六个月持有期混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.0866</t>
+          <t>0.6095</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -7794,36 +8561,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005402</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发资源优选股票A</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0425</t>
+          <t>0.5616</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -7832,36 +8599,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>011195</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5473</t>
+          <t>0.4526</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -7870,32 +8637,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011195</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>17.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5040</t>
+          <t>0.3723</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -7908,36 +8675,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004374</t>
+          <t>011046</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合A</t>
+          <t>富国优质企业混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5016</t>
+          <t>0.2715</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -7946,36 +8713,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4015</t>
+          <t>0.2622</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -7984,32 +8751,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>012442</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>永赢稳健增长一年持有期混合E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>64.16</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3792</t>
+          <t>0.2622</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -8022,36 +8789,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3105</t>
+          <t>0.2436</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -8060,32 +8827,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010235</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发资源优选股票C</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>89.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>0.2220</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -8098,36 +8865,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004375</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合C</t>
+          <t>西部利得中证500指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1892</t>
+          <t>0.2081</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -8136,36 +8903,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.69</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.1739</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -8174,36 +8941,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1629</t>
+          <t>0.1606</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -8212,36 +8979,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011410</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合A</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>30.28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -8250,36 +9017,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99.78</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0834</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -8288,36 +9055,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011550</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合A</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>99.73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -8326,36 +9093,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>002305</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>光大保德信风格轮动混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -8364,36 +9131,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0788</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -8402,36 +9169,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002067</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>诺安精选回报灵活配置混合</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>32.41</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0775</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -8440,36 +9207,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>010560</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>永赢稳健增利18个月持有期混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -8478,32 +9245,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>013595</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>永赢稳健增利18个月持有期混合E</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0596</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -8516,36 +9283,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28.90</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -8554,32 +9321,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -8592,36 +9359,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>77.47</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -8630,32 +9397,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>011139</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>广发聚鸿六个月持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>80.76</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -8668,32 +9435,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001839</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰久兴灵活配置混合</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>79.34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -8706,36 +9473,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011411</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合C</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>88.25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -8744,36 +9511,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -8782,32 +9549,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>85.08</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -8820,36 +9587,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>001839</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>九泰久兴灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -8858,27 +9625,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -8896,36 +9663,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011183</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>广发内需增长混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -8934,36 +9701,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>30.28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -8972,36 +9739,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -9010,36 +9777,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>98.55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -9048,36 +9815,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>001897</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -9086,36 +9853,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>007499</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>光大保德信风格轮动混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -9124,36 +9891,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>九泰久福量化股票A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -9162,36 +9929,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>011047</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>富国优质企业混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -9200,36 +9967,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>98.32</t>
+          <t>62.44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -9238,36 +10005,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002802</t>
+          <t>004510</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>广发东财大数据精选灵活配置混合</t>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -9276,36 +10043,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>28.90</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -9314,36 +10081,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>011551</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -9352,36 +10119,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>005260</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>银华稳健增利灵活配置混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -9390,36 +10157,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -9428,36 +10195,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>56.52</t>
+          <t>80.68</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -9466,36 +10233,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>80.68</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -9504,36 +10271,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>010121</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>九泰久福量化股票C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -9542,36 +10309,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>005261</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>银华稳健增利灵活配置混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -9580,36 +10347,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -9618,6 +10385,2190 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9825,7 +12776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
+++ b/数据整理/stocks/A股/上证主板/601699-潞安环能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="D2" t="n">
-        <v>13.18</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="D3" t="n">
-        <v>8.699999999999999</v>
+        <v>13.18</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D4" t="n">
-        <v>11.09</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>3.85</v>
+        <v>11.09</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>15.25</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>56</v>
       </c>
       <c r="D7" t="n">
-        <v>26.2</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D8" t="n">
-        <v>0.67</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -616,7 +633,2469 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519162</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华增怡债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华增怡债券C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.7113</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001832</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达瑞恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1174</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5254</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>017787</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9273</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8344</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004814</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6796</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6380</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5531</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4197</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4078</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004815</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3551</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014967</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2862</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001382</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达国企改革混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2503</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014260</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信优势动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>015566</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1008</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0865</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>81.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161132</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达科顺定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009710</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014608</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>560100</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003147</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014609</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中欧周期景气混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005290</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德新盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015526</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>大成动态量化配置策略混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>68.98</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>-0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3550,7 +6029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5314,7 +7793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7574,7 +10053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8193,2190 +10672,6 @@
       </c>
       <c r="H16" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>138.37</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>84.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.6253</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.12</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.8649</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6302</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011194</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>24.74</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>74.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2172</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>502000</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>32.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6895</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>590003</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中邮核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>13.11</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>79.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6345</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011138</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>20.66</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.6095</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011140</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合E</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>20.66</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.6095</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>11.21</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.41</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.5616</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011195</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发睿铭两年持有期混合型证券投资基金C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9.20</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>74.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4526</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.73</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.22</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3723</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011046</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国优质企业混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>10.17</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2715</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009932</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2622</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>012442</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>永赢稳健增长一年持有期混合E</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>23.62</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>24.47</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2622</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>12.96</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.96</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2436</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2220</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>009300</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>西部利得中证500指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>9.77</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2081</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519183</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家双引擎灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.18</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1739</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005062</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1606</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11.06</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>30.28</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1405</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002510</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1097</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>99.73</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0993</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0847</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>86.13</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0680</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0570</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>010560</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>永赢稳健增利18个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>013595</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>永赢稳健增利18个月持有期混合E</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>22.28</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0525</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0488</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001678</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>英大国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0433</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>004945</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长信中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0378</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>011139</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>广发聚鸿六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005910</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>广发龙头优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>79.34</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0302</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>88.25</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0301</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>83.22</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.10</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0292</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>001839</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>九泰久兴灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>92.24</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>007795</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>92.76</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005055</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>30.28</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005795</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>博时中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>92.77</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>98.55</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>001897</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>010120</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票A</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>011047</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>富国优质企业混合C</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>80.86</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>008890</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>62.44</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0061</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004510</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>九泰久盛量化先锋灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>91.28</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005616</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>东方量化成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.89</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0046</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>005418</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>申万菱信量化驱动混合</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>93.93</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>005260</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>银华稳健增利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0038</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004794</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>80.68</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>004795</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>富荣福鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>80.68</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>010121</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>九泰久福量化股票C</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>005261</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>银华稳健增利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>92.17</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>006532</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -10441,36 +10736,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>133.49</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>64.16</t>
+          <t>84.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.8213</t>
+          <t>3.6253</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -10479,36 +10774,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.63</t>
+          <t>35.12</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>99.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.3448</t>
+          <t>1.8649</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -10517,22 +10812,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>49.99</t>
+          <t>32.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -10542,11 +10837,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.5395</t>
+          <t>1.6302</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -10555,36 +10850,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>011194</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>41.89</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.65</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1322</t>
+          <t>1.2172</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -10593,36 +10888,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000991</t>
+          <t>502000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票A</t>
+          <t>西部利得中证500指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>44.61</t>
+          <t>32.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.0342</t>
+          <t>0.6895</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -10631,36 +10926,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011194</t>
+          <t>590003</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+          <t>中邮核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.82</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>79.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.3532</t>
+          <t>0.6345</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -10669,36 +10964,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009888</t>
+          <t>011138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合C</t>
+          <t>广发聚鸿六个月持有期混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.70</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.2901</t>
+          <t>0.6095</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -10707,36 +11002,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>011140</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>广发聚鸿六个月持有期混合E</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>21.14</t>
+          <t>20.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.0866</t>
+          <t>0.6095</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -10745,36 +11040,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005402</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发资源优选股票A</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18.92</t>
+          <t>11.21</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.0425</t>
+          <t>0.5616</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -10783,36 +11078,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>011195</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>9.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>74.96</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.86</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.5473</t>
+          <t>0.4526</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -10821,32 +11116,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>011195</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>17.73</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>73.46</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.5040</t>
+          <t>0.3723</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -10859,36 +11154,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>004374</t>
+          <t>011046</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合A</t>
+          <t>富国优质企业混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.53</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.5016</t>
+          <t>0.2715</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -10897,36 +11192,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>240004</t>
+          <t>009932</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝动力组合混合</t>
+          <t>永赢稳健增长一年持有期混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.4015</t>
+          <t>0.2622</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -10935,32 +11230,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>012442</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>永赢稳健增长一年持有期混合E</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>7.42</t>
+          <t>23.62</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>64.16</t>
+          <t>24.47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.3792</t>
+          <t>0.2622</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -10973,36 +11268,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>000978</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>景顺长城量化精选股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>12.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>92.96</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.3105</t>
+          <t>0.2436</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -11011,32 +11306,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010235</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发资源优选股票C</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>94.57</t>
+          <t>89.08</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>5.51</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2237</t>
+          <t>0.2220</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -11049,36 +11344,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004375</t>
+          <t>009300</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华泰保兴吉年丰混合C</t>
+          <t>西部利得中证500指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>9.77</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>92.14</t>
+          <t>90.79</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.1892</t>
+          <t>0.2081</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -11087,36 +11382,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>3.68</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>88.69</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.1656</t>
+          <t>0.1739</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -11125,36 +11420,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005904</t>
+          <t>005062</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合A</t>
+          <t>博时中证500指数增强A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.1629</t>
+          <t>0.1606</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -11163,36 +11458,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>011410</t>
+          <t>010029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合A</t>
+          <t>富国稳进回报12个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>30.28</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.1405</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -11201,36 +11496,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>002510</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>申万菱信中证500指数增强A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>99.78</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0834</t>
+          <t>0.1097</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -11239,36 +11534,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>011550</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合A</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>99.73</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0993</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -11277,36 +11572,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>010029</t>
+          <t>002305</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合A</t>
+          <t>光大保德信风格轮动混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0817</t>
+          <t>0.0847</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -11315,36 +11610,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>86.13</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0788</t>
+          <t>0.0680</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -11353,36 +11648,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>002067</t>
+          <t>310368</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>诺安精选回报灵活配置混合</t>
+          <t>申万菱信竞争优势混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>32.41</t>
+          <t>94.37</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>4.71</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0775</t>
+          <t>0.0570</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -11391,36 +11686,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002906</t>
+          <t>010560</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票A</t>
+          <t>永赢稳健增利18个月持有期混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0718</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -11429,32 +11724,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007831</t>
+          <t>013595</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票A</t>
+          <t>永赢稳健增利18个月持有期混合E</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0596</t>
+          <t>0.0525</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -11467,36 +11762,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>000507</t>
+          <t>006440</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合A</t>
+          <t>中信建投中证500指数增强A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>28.90</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0370</t>
+          <t>0.0488</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -11505,32 +11800,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009999</t>
+          <t>001678</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>东方中国红利混合</t>
+          <t>英大国企改革主题股票</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0355</t>
+          <t>0.0433</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -11543,36 +11838,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000433</t>
+          <t>004945</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安信鑫发优选混合</t>
+          <t>长信中证500指数增强</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>77.47</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0353</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -11581,32 +11876,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005910</t>
+          <t>011139</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>广发龙头优选灵活配置混合</t>
+          <t>广发聚鸿六个月持有期混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>80.76</t>
+          <t>92.72</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -11619,32 +11914,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>001839</t>
+          <t>005910</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰久兴灵活配置混合</t>
+          <t>广发龙头优选灵活配置混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>91.85</t>
+          <t>79.34</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0307</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -11657,36 +11952,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>011411</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中信建投量化进取6个月持有期混合C</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>79.98</t>
+          <t>88.25</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0304</t>
+          <t>0.0301</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -11695,36 +11990,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>162212</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰达宏利红利先锋混合</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>92.04</t>
+          <t>83.22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0269</t>
+          <t>0.0292</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -11733,32 +12028,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>006441</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>中信建投中证500指数增强C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>85.08</t>
+          <t>90.75</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -11771,36 +12066,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>001839</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>九泰久兴灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>91.50</t>
+          <t>92.24</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0253</t>
+          <t>0.0279</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38">
@@ -11809,27 +12104,27 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>011473</t>
+          <t>007795</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>工银瑞信战略转型主题股票C</t>
+          <t>申万菱信中证500指数增强C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -11847,36 +12142,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>011183</t>
+          <t>005055</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>广发内需增长混合C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0231</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -11885,36 +12180,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>007832</t>
+          <t>010030</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博道伍佰智航股票C</t>
+          <t>富国稳进回报12个月持有期混合C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>91.43</t>
+          <t>30.28</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0229</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -11923,36 +12218,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>501059</t>
+          <t>005795</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+          <t>博时中证500指数增强C</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>92.77</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.0223</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -11961,36 +12256,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>002907</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>南方中证500量化增强股票C</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>92.55</t>
+          <t>98.55</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.0199</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
@@ -11999,36 +12294,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>003912</t>
+          <t>001897</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合A</t>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0191</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -12037,36 +12332,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>007499</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>光大保德信风格轮动混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>89.94</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -12075,36 +12370,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>010030</t>
+          <t>010120</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>富国稳进回报12个月持有期混合C</t>
+          <t>九泰久福量化股票A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.66</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>23.91</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.0178</t>
+          <t>0.0164</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -12113,36 +12408,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>006440</t>
+          <t>011047</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强A</t>
+          <t>富国优质企业混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>80.86</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -12151,36 +12446,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>98.32</t>
+          <t>62.44</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0111</t>
+          <t>0.0061</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -12189,36 +12484,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>002802</t>
+          <t>004510</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>广发东财大数据精选灵活配置混合</t>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>91.28</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.0097</t>
+          <t>0.0051</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -12227,36 +12522,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>000508</t>
+          <t>005616</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>泰达宏利宏达混合B</t>
+          <t>东方量化成长灵活配置混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>28.90</t>
+          <t>93.89</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0046</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -12265,36 +12560,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>011551</t>
+          <t>005418</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>湘财创新成长一年持有期混合C</t>
+          <t>申万菱信量化驱动混合</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -12303,36 +12598,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>005905</t>
+          <t>005260</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>华泰保兴成长优选混合C</t>
+          <t>银华稳健增利灵活配置混合A</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0038</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -12341,36 +12636,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>006441</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>中信建投中证500指数增强C</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>93.90</t>
+          <t>94.28</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
@@ -12379,36 +12674,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>004546</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>建信量化优享定期开放灵活配置混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>56.52</t>
+          <t>80.68</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -12417,36 +12712,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>80.68</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -12455,36 +12750,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>009439</t>
+          <t>010121</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+          <t>九泰久福量化股票C</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>92.69</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -12493,36 +12788,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>003913</t>
+          <t>005261</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>泰达宏利启富灵活配置混合C</t>
+          <t>银华稳健增利灵活配置混合C</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>65.56</t>
+          <t>92.17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0005</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
@@ -12531,36 +12826,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>006532</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>90.06</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -12569,6 +12864,2190 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.8213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3448</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5395</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>41.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3532</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2901</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0866</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0425</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004374</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5016</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3792</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004375</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年丰混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005904</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002067</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>诺安精选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007831</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005910</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发龙头优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002145</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>诺安景鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博道伍佰智航股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003912</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>28.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005905</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰保兴成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004546</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信量化优享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>56.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003913</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>泰达宏利启富灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12774,250 +15253,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2376</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1653</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1174</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519162</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>新华增怡债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519163</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>新华增怡债券C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>20.11</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>